--- a/resources/contacts.xlsx
+++ b/resources/contacts.xlsx
@@ -16,6 +16,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,6 +369,9 @@
         <v>7026193144</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/contacts.xlsx
+++ b/resources/contacts.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +337,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -351,22 +347,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>9901946273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7899426373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9008160133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7026193144</v>
+        <v>919656445015</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
